--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23AEA5A6-11E4-4871-9FDE-9E481C93F42C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F6173-521C-46D0-9F46-67B6C091EBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Tanggal</t>
   </si>
@@ -44,6 +44,12 @@
   </si>
   <si>
     <t>Subsidi Konsumsi</t>
+  </si>
+  <si>
+    <t>25 September 2023.</t>
+  </si>
+  <si>
+    <t>Konsumsi</t>
   </si>
 </sst>
 </file>
@@ -386,16 +392,14 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="5" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
@@ -445,14 +449,33 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
+      <c r="D4" s="1">
+        <v>100000</v>
+      </c>
+      <c r="E4" s="1">
+        <f>E3-D4</f>
+        <v>280000</v>
+      </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C5" s="1"/>
+      <c r="B5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C5" s="1">
+        <v>45000</v>
+      </c>
       <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
+      <c r="E5" s="1">
+        <f>E4+C5</f>
+        <v>325000</v>
+      </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C6" s="1"/>

--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20370"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F2F6173-521C-46D0-9F46-67B6C091EBEE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C433DF69-355C-4CB7-AA89-E78FA22B5135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
   <si>
     <t>Tanggal</t>
   </si>
@@ -50,6 +50,9 @@
   </si>
   <si>
     <t>Konsumsi</t>
+  </si>
+  <si>
+    <t>9 Oktober 2023.</t>
   </si>
 </sst>
 </file>
@@ -392,7 +395,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -444,7 +447,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f>E2+C3</f>
+        <f t="shared" ref="E3:E7" si="0">E2+C3-D3</f>
         <v>380000</v>
       </c>
     </row>
@@ -460,7 +463,7 @@
         <v>100000</v>
       </c>
       <c r="E4" s="1">
-        <f>E3-D4</f>
+        <f t="shared" si="0"/>
         <v>280000</v>
       </c>
     </row>
@@ -473,19 +476,38 @@
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="1">
-        <f>E4+C5</f>
+        <f t="shared" si="0"/>
         <v>325000</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
+      <c r="D6" s="1">
+        <v>56000</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>269000</v>
+      </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C7" s="1"/>
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>55000</v>
+      </c>
       <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>324000</v>
+      </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C8" s="1"/>

--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C433DF69-355C-4CB7-AA89-E78FA22B5135}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8EF5B-CEC3-4324-B25D-8B79FE4223D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
   <si>
     <t>Tanggal</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>9 Oktober 2023.</t>
+  </si>
+  <si>
+    <t>11 Oktober 2023.</t>
   </si>
 </sst>
 </file>
@@ -395,7 +398,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7:E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -505,14 +508,25 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="E7:E8" si="1">E6+C7-D7</f>
         <v>324000</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C8" s="1"/>
+      <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>150000</v>
+      </c>
       <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
+      <c r="E8" s="1">
+        <f t="shared" si="1"/>
+        <v>474000</v>
+      </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C9" s="1"/>

--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34D8EF5B-CEC3-4324-B25D-8B79FE4223D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED343AB-3C10-4BC2-972F-3A3ADCFBB5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>Tanggal</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>11 Oktober 2023.</t>
+  </si>
+  <si>
+    <t>16 Oktober 2023.</t>
   </si>
 </sst>
 </file>
@@ -398,7 +401,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7:E8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -450,7 +453,7 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1">
-        <f t="shared" ref="E3:E7" si="0">E2+C3-D3</f>
+        <f t="shared" ref="E3:E6" si="0">E2+C3-D3</f>
         <v>380000</v>
       </c>
     </row>
@@ -524,19 +527,38 @@
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1">
-        <f t="shared" si="1"/>
+        <f t="shared" ref="E8:E9" si="2">E7+C8-D8</f>
         <v>474000</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
+      <c r="D9" s="1">
+        <v>73000</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="2"/>
+        <v>401000</v>
+      </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C10" s="1"/>
+      <c r="B10" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <f>E10-E9</f>
+        <v>62000</v>
+      </c>
       <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
+      <c r="E10" s="1">
+        <v>463000</v>
+      </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C11" s="1"/>

--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED343AB-3C10-4BC2-972F-3A3ADCFBB5C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DBBF1-06AF-44FB-B361-8C161CBDF57D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
   <si>
     <t>Tanggal</t>
   </si>
@@ -59,6 +59,9 @@
   </si>
   <si>
     <t>16 Oktober 2023.</t>
+  </si>
+  <si>
+    <t>6 November 2023.</t>
   </si>
 </sst>
 </file>
@@ -401,7 +404,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -511,7 +514,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1">
-        <f t="shared" ref="E7:E8" si="1">E6+C7-D7</f>
+        <f t="shared" ref="E7" si="1">E6+C7-D7</f>
         <v>324000</v>
       </c>
     </row>
@@ -561,14 +564,33 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
+      <c r="D11" s="1">
+        <v>73000</v>
+      </c>
+      <c r="E11" s="1">
+        <f>E10-D11</f>
+        <v>390000</v>
+      </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C12" s="1"/>
+      <c r="B12" t="s">
+        <v>6</v>
+      </c>
+      <c r="C12" s="1">
+        <v>57000</v>
+      </c>
       <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
+      <c r="E12" s="1">
+        <f>E11+C12</f>
+        <v>447000</v>
+      </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C13" s="1"/>

--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F1DBBF1-06AF-44FB-B361-8C161CBDF57D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD8AAD-3C0F-4FD8-A67C-BAA27CB5DD42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
   <si>
     <t>Tanggal</t>
   </si>
@@ -62,6 +62,9 @@
   </si>
   <si>
     <t>6 November 2023.</t>
+  </si>
+  <si>
+    <t>13 November 2023.</t>
   </si>
 </sst>
 </file>
@@ -404,7 +407,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -593,19 +596,46 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
+      <c r="D13" s="1">
+        <v>105000</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" ref="E13:E15" si="3">E12-D13+C13</f>
+        <v>342000</v>
+      </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C14" s="1"/>
+      <c r="B14" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="1">
+        <v>150000</v>
+      </c>
       <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
+      <c r="E14" s="1">
+        <f t="shared" si="3"/>
+        <v>492000</v>
+      </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="C15" s="1"/>
+      <c r="B15" t="s">
+        <v>6</v>
+      </c>
+      <c r="C15" s="1">
+        <v>64000</v>
+      </c>
       <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
+      <c r="E15" s="1">
+        <f t="shared" si="3"/>
+        <v>556000</v>
+      </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="C16" s="1"/>

--- a/dakwah/pembukuan.xlsx
+++ b/dakwah/pembukuan.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20402"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1DAD8AAD-3C0F-4FD8-A67C-BAA27CB5DD42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A7F05E6-335F-49E9-90C2-C1E183147FB9}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="16">
   <si>
     <t>Tanggal</t>
   </si>
@@ -65,6 +65,9 @@
   </si>
   <si>
     <t>13 November 2023.</t>
+  </si>
+  <si>
+    <t>4 Desember 2023.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +410,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+      <selection activeCell="E15" sqref="E15:E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,14 +636,25 @@
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="E15:E16" si="4">E14-D15+C15</f>
         <v>556000</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
+      <c r="D16" s="1">
+        <v>50000</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="4"/>
+        <v>506000</v>
+      </c>
     </row>
     <row r="17" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C17" s="1"/>
